--- a/WebServer/public/chatbot/train_tools/qna/train_data.xlsx
+++ b/WebServer/public/chatbot/train_tools/qna/train_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kei/PycharmProjects/first_chatbot/train_tools/qna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grad_Proj\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A853BDA-43A5-AE4C-916E-BDA6CC036CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63832F13-7E3E-433A-9F9B-8CBC3CCFED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-8880" windowWidth="21600" windowHeight="20940" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,73 +51,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>답변 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 안녕하세요 :D
-반갑습니다. 저는 챗봇입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반가워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_FOOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 주문 처리 완료되었습니다. 
-주문해주셔서 감사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 주문할게요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_DT,B_TI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_DT} 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_DT}에 예약 접수 되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕하면 나빠요 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 주문 처리 감사!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/UluUFMp.jpg</t>
+    <t>B_PROF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_SUBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문-시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문-과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문-교수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문-강의실 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_CLASSROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_CLASSROOM}호입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_TIME}에 시작합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 수업 해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_SUBJ} 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 교수님께서 수업하셔?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_PROF} 교수님께서 하십니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디서 해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 수업해?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -531,21 +525,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,53 +552,53 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="38">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="38">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -612,40 +606,24 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="38">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0E9BA614-0B84-764C-9F33-CC800C3C4E3B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F3941D0C-1C04-7A44-906E-8CC02273961F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>